--- a/biology/Biochimie/Vladimir_Engelgardt/Vladimir_Engelgardt.xlsx
+++ b/biology/Biochimie/Vladimir_Engelgardt/Vladimir_Engelgardt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vladimir Aleksandrovitch Engelgardt (en russe : Владимир Александрович Энгельгардт), né le 3 décembre 1894 à Moscou (Empire russe) et  décédé en 1984 à Moscou (Union soviétique) est un biochimiste soviétique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vladimir Engelgardt est considéré comme l'un des fondateurs de la biologie moléculaire en Union soviétique.
 Il fut membre de l'Académie soviétique des sciences médicales (1944) et membre de l'Académie des Sciences de l'Union soviétique (1953). 
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Prix Staline (1943)
 Prix d'État de l'URSS (1979)
